--- a/data/processed/sample_data_フィラー.xlsx
+++ b/data/processed/sample_data_フィラー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YukiKimura\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:9_{37520C52-709C-48E7-81F0-C33CF2D1B863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D02704A9-A558-4DE5-B059-110C0F82A5F0}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="13_ncr:9_{37520C52-709C-48E7-81F0-C33CF2D1B863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F61DA8FD-6F74-4CA0-886E-BCAA292C59EE}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{C9514DDA-F768-4EC2-B025-2F3F32CF1A91}"/>
   </bookViews>
@@ -57,7 +57,7 @@
     <t>confidence</t>
   </si>
   <si>
-    <t>fillerNum</t>
+    <t>filler_num_true</t>
   </si>
   <si>
     <t>では、来季の予算会議を始めます。各部署からの報告をお願いします。まずは佐藤さん、全体の見通しをお願いします。</t>
@@ -1699,13 +1699,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681FE6CF-02B0-4F62-A902-A8E6AC87E753}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="64" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="3" max="3" width="164.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75">
@@ -2282,6 +2283,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100D406FEE3061F1141AF5D1CE13D68FE60" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="eab683282d29e8956f17300b445c2414">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="08401ecc-5820-4943-87ee-e10055818af7" xmlns:ns3="b5f1fb76-149d-40f5-9766-b1c93cdbe5ea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9dddcc6e2f216f0798ea495096a4aa6e" ns2:_="" ns3:_="">
     <xsd:import namespace="08401ecc-5820-4943-87ee-e10055818af7"/>
@@ -2470,15 +2480,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2491,11 +2492,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CD96F9D-6B18-44C2-ABFE-2249B6258AD5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3EB79C5-907E-4AA7-8AFA-DAB3B44D62F1}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3EB79C5-907E-4AA7-8AFA-DAB3B44D62F1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CD96F9D-6B18-44C2-ABFE-2249B6258AD5}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
